--- a/source/a_video_revenue_report_25_2025_09.xlsx
+++ b/source/a_video_revenue_report_25_2025_09.xlsx
@@ -242,8 +242,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -252,7 +256,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -275,527 +279,527 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="34.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="0" t="n">
+      <c r="G2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="n">
         <v>0.183649</v>
       </c>
-      <c r="J2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="0" t="n">
+      <c r="J2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="n">
         <f aca="false">SUM(H2:J2)</f>
         <v>0.183649</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="34.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0" t="n">
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
         <v>0.929873</v>
       </c>
-      <c r="J3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="0" t="n">
+      <c r="J3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="n">
         <f aca="false">SUM(H3:J3)</f>
         <v>0.929873</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="34.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="3" t="n">
         <v>1799</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="3" t="n">
         <v>466</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="n">
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
         <v>691.878732</v>
       </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
+      <c r="J4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="n">
         <f aca="false">SUM(H4:J4)</f>
         <v>691.878732</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="34.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="H5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="n">
         <f aca="false">SUM(H5:J5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="34.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0" t="n">
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="n">
         <v>1.094646</v>
       </c>
-      <c r="J6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="J6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="n">
         <f aca="false">SUM(H6:J6)</f>
         <v>1.094646</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="n">
         <v>3.8456</v>
       </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="J7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
         <f aca="false">SUM(H7:J7)</f>
         <v>3.8456</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="34.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="0" t="n">
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="n">
         <f aca="false">SUM(H8:J8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0" t="n">
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
         <v>3.655658</v>
       </c>
-      <c r="J9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="0" t="n">
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="n">
         <f aca="false">SUM(H9:J9)</f>
         <v>3.655658</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="34.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0" t="n">
+      <c r="G10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="n">
         <v>0.509852</v>
       </c>
-      <c r="J10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="0" t="n">
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="n">
         <f aca="false">SUM(H10:J10)</f>
         <v>0.509852</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="0" t="n">
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="n">
         <v>4.820422</v>
       </c>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="0" t="n">
+      <c r="J11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="n">
         <f aca="false">SUM(H11:J11)</f>
         <v>4.820422</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="false" ht="34.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="0" t="n">
+      <c r="H12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="n">
         <v>3.383059</v>
       </c>
-      <c r="J12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="0" t="n">
+      <c r="J12" s="3" t="n">
+        <v>2.012459</v>
+      </c>
+      <c r="K12" s="1" t="n">
         <f aca="false">SUM(H12:J12)</f>
-        <v>3.383059</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+        <v>5.395518</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="3" t="n">
         <v>982</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="3" t="n">
         <v>114</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0" t="n">
+      <c r="H13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="n">
         <v>379.509923</v>
       </c>
-      <c r="J13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="0" t="n">
+      <c r="J13" s="3" t="n">
+        <v>27.464949</v>
+      </c>
+      <c r="K13" s="1" t="n">
         <f aca="false">SUM(H13:J13)</f>
-        <v>379.509923</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+        <v>406.974872</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="34.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="0" t="n">
+      <c r="G14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="n">
         <f aca="false">SUM(H14:J14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
